--- a/docs/argo-questionnaire.xlsx
+++ b/docs/argo-questionnaire.xlsx
@@ -901,10 +901,10 @@
     <t>Questions and answer choice order rank.</t>
   </si>
   <si>
-    <t>An integer representing the order of questions within Questionnaires groups, groups within groups and groups within questions and the order of answer choices for questions of type 'choice' and 'open-choice using `Questionnaire.item.option`.</t>
-  </si>
-  <si>
-    <t>Note that a the order within an array *SHALL* be maintained in conformant FHIR implementation.  However, this is difficult to validate.  An explicit order element for Questionnaires item groups and answer choices helps the renderer to maintain the proper order as well as when the resource instance is reassembled from an application's internal format.  When using a contained value set representing permitted answers for a 'choice' or 'open-choice' question use the standard FHIR extension [valueset-conceptOrder](http://hl7.org/fhir/STU3/extension-valueset-conceptorder.html) to indicate the order.</t>
+    <t>A non-negative integer representing the order of questions within Questionnaires groups, groups within groups and groups within questions and the order of answer choices for questions of type 'choice' and 'open-choice using `Questionnaire.item.option`. The order values should be consecutive and start at 0 or 1</t>
+  </si>
+  <si>
+    <t>Note that a the order within an array *SHALL* be maintained in conformant FHIR implementation.  However in practice, this can be difficult to validate and maintain. An explicit order element for Questionnaires item groups and answer choices helps the renderer to preserve the proper order.  For example when the resource instance is split up and then reassembled from an application's internal format.      When using a contained value set representing permitted answers for a 'choice' or 'open-choice' question use the standard FHIR extension [valueset-conceptOrder](http://hl7.org/fhir/STU3/extension-valueset-conceptorder.html) to indicate the order rank in the same manner as with this extension</t>
   </si>
   <si>
     <t>Questionnaire.item.modifierExtension</t>

--- a/docs/argo-questionnaire.xlsx
+++ b/docs/argo-questionnaire.xlsx
@@ -395,7 +395,7 @@
     <t>Logical URI to reference this questionnaire (globally unique)</t>
   </si>
   <si>
-    <t>An absolute URI that is used to identify this questionnaire when it is referenced in a specification, model, design or an instance. This SHALL be a URL, SHOULD be globally unique, and SHOULD be an address at which this questionnaire is (or will be) published. The URL SHOULD include the major version of the questionnaire. For more information see [Technical and Business Versions](resource.html#versions).</t>
+    <t>An absolute URI that is used to identify this questionnaire when it is referenced in a specification, model, design or an instance. This SHALL be a URL, SHOULD be globally unique, and SHOULD be an address at which this questionnaire is (or will be) published. The URL SHOULD include the major version of the questionnaire. For more information see [Technical and Business Versions](http://hl7.org/fhir/STU3/resource.html#versions).</t>
   </si>
   <si>
     <t>Can be a urn:uuid: or a urn:oid:, but real http: addresses are preferred.  Multiple instances may share the same url if they have a distinct version.</t>
@@ -932,7 +932,7 @@
     <t>This ''can'' be a meaningful identifier (e.g. a LOINC code) but is not intended to have any meaning.  GUIDs or sequential numbers are appropriate here.</t>
   </si>
   <si>
-    <t>[QuestionnaireResponse](questionnaireresponse.html#) does not require omitted items to be included and may have some items that repeat, so linkage based on position alone is not sufficient.</t>
+    <t>[QuestionnaireResponse](http://hl7.org/fhir/STU3/questionnaireresponse.html#) does not require omitted items to be included and may have some items that repeat, so linkage based on position alone is not sufficient.</t>
   </si>
   <si>
     <t>Questionnaire.group.linkId, Questionnaire.group.question.linkId</t>
@@ -947,7 +947,7 @@
     <t>ElementDefinition - details for the item</t>
   </si>
   <si>
-    <t>A reference to an [ElementDefinition](elementdefinition.html) that provides the details for the item. If a definition is provided, then the following element values can be inferred from the definition: 
+    <t>A reference to an [ElementDefinition](http://hl7.org/fhir/STU3/elementdefinition.html) that provides the details for the item. If a definition is provided, then the following element values can be inferred from the definition: 
 * code (ElementDefinition.code)
 * type (ElementDefinition.type)
 * required (ElementDefinition.min)
@@ -957,7 +957,7 @@
 Any information provided in these elements on a Questionnaire Item overrides the information from the definition.</t>
   </si>
   <si>
-    <t>the URI refers to an ElementDefinition in either a [StructureDefinition](structuredefinition.html#) or a [DataElement](dataelement.html#), and always starts with the canonical URL for the target resource. When referring to a StructureDefinition, a fragment identifier is used to specify the element definition by its id [Element.id](element-definitions.html#Element.id). E.g. http://hl7.org/fhir/StructureDefinition/Observation#Observation.value[x]. In the absence of a fragment identifier, the first/root element definition in the target is the matching element definition. Note that [LOINC codes](loinc.html#dataelements) implicitly define DataElement resources.</t>
+    <t>the URI refers to an ElementDefinition in either a [StructureDefinition](http://hl7.org/fhir/STU3/structuredefinition.html#) or a [DataElement](http://hl7.org/fhir/STU3/dataelement.html#), and always starts with the canonical URL for the target resource. When referring to a StructureDefinition, a fragment identifier is used to specify the element definition by its id [Element.id](http://hl7.org/fhir/STU3/element-definitions.html#Element.id). E.g. http://hl7.org/fhir/StructureDefinition/Observation#Observation.value[x]. In the absence of a fragment identifier, the first/root element definition in the target is the matching element definition. Note that [LOINC codes](http://hl7.org/fhir/STU3/loinc.html#dataelements) implicitly define DataElement resources.</t>
   </si>
   <si>
     <t>A common pattern is to define a set of data elements and then build multiple questionnaires for different circumstances to gather the data. This element provides traceability to the common definition and allows the content for the question to come from the underlying definition.</t>
